--- a/data/grid_and_levies.xlsx
+++ b/data/grid_and_levies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4bd978c640c1291/Documenten/06 Fun/web_dev/energy-app-backend/energy-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{77A036C5-D8B3-4B33-AB95-F99E73D1E926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D250C119-4C6B-4374-884A-2F3122F72F66}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{77A036C5-D8B3-4B33-AB95-F99E73D1E926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CDB2B45-A80A-406C-A39C-093C16BE5E07}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{F865BFF1-729B-4A4A-B66D-26633B71277A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>DNB</t>
   </si>
@@ -68,12 +68,6 @@
     <t>FLUVIUS WEST (GASELWEST)</t>
   </si>
   <si>
-    <t>FLUVIUS IMEWO (IMEWO)</t>
-  </si>
-  <si>
-    <t>FLUVIUS MIDDEN-VLAANDEREN (INTERGEM)</t>
-  </si>
-  <si>
     <t>FLUVIUS KEMPEN (IVEKA)</t>
   </si>
   <si>
@@ -83,10 +77,22 @@
     <t>FLUVIUS ZENNE-DIJLE (PBE)</t>
   </si>
   <si>
-    <t>FLUVIUS HALLE-VILVOORDE (SIBELGAS)</t>
-  </si>
-  <si>
     <t>VAT_[pct]</t>
+  </si>
+  <si>
+    <t>FLUVIUS IMEWO</t>
+  </si>
+  <si>
+    <t>FLUVIUS MIDDEN-VLAANDEREN</t>
+  </si>
+  <si>
+    <t>FLUVIUS KEMPEN</t>
+  </si>
+  <si>
+    <t>FLUVIUS ZENNE-DIJLE</t>
+  </si>
+  <si>
+    <t>FLUVIUS HALLE-VILVOORDE</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,7 +598,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>2025</v>
@@ -615,7 +621,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>2025</v>
@@ -638,7 +644,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>2025</v>
@@ -661,7 +667,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>2025</v>
@@ -684,7 +690,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>2025</v>
@@ -707,7 +713,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2025</v>
@@ -822,7 +828,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>2024</v>
@@ -845,7 +851,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>2024</v>
@@ -868,7 +874,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2024</v>
@@ -891,7 +897,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2024</v>
@@ -914,7 +920,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>2024</v>
@@ -937,7 +943,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>2024</v>
